--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnc1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4625509518922</v>
+        <v>19.76232966666667</v>
       </c>
       <c r="H2">
-        <v>11.4625509518922</v>
+        <v>59.28698900000001</v>
       </c>
       <c r="I2">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069146</v>
       </c>
       <c r="J2">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069145</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44037028170231</v>
+        <v>16.75150633333334</v>
       </c>
       <c r="N2">
-        <v>1.44037028170231</v>
+        <v>50.254519</v>
       </c>
       <c r="O2">
-        <v>0.04565274865252446</v>
+        <v>0.3469350574503514</v>
       </c>
       <c r="P2">
-        <v>0.04565274865252446</v>
+        <v>0.3469350574503513</v>
       </c>
       <c r="Q2">
-        <v>16.51031774360405</v>
+        <v>331.048790572588</v>
       </c>
       <c r="R2">
-        <v>16.51031774360405</v>
+        <v>2979.439115153291</v>
       </c>
       <c r="S2">
-        <v>0.02241046267815112</v>
+        <v>0.2113534847635987</v>
       </c>
       <c r="T2">
-        <v>0.02241046267815112</v>
+        <v>0.2113534847635987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4625509518922</v>
+        <v>19.76232966666667</v>
       </c>
       <c r="H3">
-        <v>11.4625509518922</v>
+        <v>59.28698900000001</v>
       </c>
       <c r="I3">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069146</v>
       </c>
       <c r="J3">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.85356521402386</v>
+        <v>4.930404</v>
       </c>
       <c r="N3">
-        <v>4.85356521402386</v>
+        <v>14.791212</v>
       </c>
       <c r="O3">
-        <v>0.1538344657615356</v>
+        <v>0.1021120107622625</v>
       </c>
       <c r="P3">
-        <v>0.1538344657615356</v>
+        <v>0.1021120107622625</v>
       </c>
       <c r="Q3">
-        <v>55.63423856408006</v>
+        <v>97.43626923785202</v>
       </c>
       <c r="R3">
-        <v>55.63423856408006</v>
+        <v>876.926423140668</v>
       </c>
       <c r="S3">
-        <v>0.07551574998916462</v>
+        <v>0.06220682761041169</v>
       </c>
       <c r="T3">
-        <v>0.07551574998916462</v>
+        <v>0.06220682761041166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4625509518922</v>
+        <v>19.76232966666667</v>
       </c>
       <c r="H4">
-        <v>11.4625509518922</v>
+        <v>59.28698900000001</v>
       </c>
       <c r="I4">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069146</v>
       </c>
       <c r="J4">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069145</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.1390240696821</v>
+        <v>25.470675</v>
       </c>
       <c r="N4">
-        <v>24.1390240696821</v>
+        <v>76.412025</v>
       </c>
       <c r="O4">
-        <v>0.765089930394853</v>
+        <v>0.5275149540934355</v>
       </c>
       <c r="P4">
-        <v>0.765089930394853</v>
+        <v>0.5275149540934354</v>
       </c>
       <c r="Q4">
-        <v>276.6947933276833</v>
+        <v>503.3598761825251</v>
       </c>
       <c r="R4">
-        <v>276.6947933276833</v>
+        <v>4530.238885642725</v>
       </c>
       <c r="S4">
-        <v>0.3755747427399416</v>
+        <v>0.3213630949605393</v>
       </c>
       <c r="T4">
-        <v>0.3755747427399416</v>
+        <v>0.3213630949605391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4625509518922</v>
+        <v>19.76232966666667</v>
       </c>
       <c r="H5">
-        <v>11.4625509518922</v>
+        <v>59.28698900000001</v>
       </c>
       <c r="I5">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069146</v>
       </c>
       <c r="J5">
-        <v>0.490889669069507</v>
+        <v>0.6092018671069145</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.11761130307024</v>
+        <v>1.131685666666667</v>
       </c>
       <c r="N5">
-        <v>1.11761130307024</v>
+        <v>3.395057</v>
       </c>
       <c r="O5">
-        <v>0.03542285519108692</v>
+        <v>0.02343797769395061</v>
       </c>
       <c r="P5">
-        <v>0.03542285519108692</v>
+        <v>0.02343797769395061</v>
       </c>
       <c r="Q5">
-        <v>12.81067650585326</v>
+        <v>22.36474522370811</v>
       </c>
       <c r="R5">
-        <v>12.81067650585326</v>
+        <v>201.282707013373</v>
       </c>
       <c r="S5">
-        <v>0.01738871366224973</v>
+        <v>0.01427845977236493</v>
       </c>
       <c r="T5">
-        <v>0.01738871366224973</v>
+        <v>0.01427845977236493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.730974341103479</v>
+        <v>9.791583333333334</v>
       </c>
       <c r="H6">
-        <v>9.730974341103479</v>
+        <v>29.37475</v>
       </c>
       <c r="I6">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436632</v>
       </c>
       <c r="J6">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436631</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44037028170231</v>
+        <v>16.75150633333334</v>
       </c>
       <c r="N6">
-        <v>1.44037028170231</v>
+        <v>50.254519</v>
       </c>
       <c r="O6">
-        <v>0.04565274865252446</v>
+        <v>0.3469350574503514</v>
       </c>
       <c r="P6">
-        <v>0.04565274865252446</v>
+        <v>0.3469350574503513</v>
       </c>
       <c r="Q6">
-        <v>14.01620625293317</v>
+        <v>164.0237702216945</v>
       </c>
       <c r="R6">
-        <v>14.01620625293317</v>
+        <v>1476.21393199525</v>
       </c>
       <c r="S6">
-        <v>0.0190250528183996</v>
+        <v>0.1047186892314521</v>
       </c>
       <c r="T6">
-        <v>0.0190250528183996</v>
+        <v>0.1047186892314521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.730974341103479</v>
+        <v>9.791583333333334</v>
       </c>
       <c r="H7">
-        <v>9.730974341103479</v>
+        <v>29.37475</v>
       </c>
       <c r="I7">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436632</v>
       </c>
       <c r="J7">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436631</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.85356521402386</v>
+        <v>4.930404</v>
       </c>
       <c r="N7">
-        <v>4.85356521402386</v>
+        <v>14.791212</v>
       </c>
       <c r="O7">
-        <v>0.1538344657615356</v>
+        <v>0.1021120107622625</v>
       </c>
       <c r="P7">
-        <v>0.1538344657615356</v>
+        <v>0.1021120107622625</v>
       </c>
       <c r="Q7">
-        <v>47.22991856053859</v>
+        <v>48.276461633</v>
       </c>
       <c r="R7">
-        <v>47.22991856053859</v>
+        <v>434.488154697</v>
       </c>
       <c r="S7">
-        <v>0.0641080531356278</v>
+        <v>0.03082143384527321</v>
       </c>
       <c r="T7">
-        <v>0.0641080531356278</v>
+        <v>0.03082143384527319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.730974341103479</v>
+        <v>9.791583333333334</v>
       </c>
       <c r="H8">
-        <v>9.730974341103479</v>
+        <v>29.37475</v>
       </c>
       <c r="I8">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436632</v>
       </c>
       <c r="J8">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.1390240696821</v>
+        <v>25.470675</v>
       </c>
       <c r="N8">
-        <v>24.1390240696821</v>
+        <v>76.412025</v>
       </c>
       <c r="O8">
-        <v>0.765089930394853</v>
+        <v>0.5275149540934355</v>
       </c>
       <c r="P8">
-        <v>0.765089930394853</v>
+        <v>0.5275149540934354</v>
       </c>
       <c r="Q8">
-        <v>234.8962238413558</v>
+        <v>249.39823681875</v>
       </c>
       <c r="R8">
-        <v>234.8962238413558</v>
+        <v>2244.58413136875</v>
       </c>
       <c r="S8">
-        <v>0.3188389914345902</v>
+        <v>0.1592248271149695</v>
       </c>
       <c r="T8">
-        <v>0.3188389914345902</v>
+        <v>0.1592248271149694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.730974341103479</v>
+        <v>9.791583333333334</v>
       </c>
       <c r="H9">
-        <v>9.730974341103479</v>
+        <v>29.37475</v>
       </c>
       <c r="I9">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436632</v>
       </c>
       <c r="J9">
-        <v>0.4167340057266752</v>
+        <v>0.3018394566436631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.11761130307024</v>
+        <v>1.131685666666667</v>
       </c>
       <c r="N9">
-        <v>1.11761130307024</v>
+        <v>3.395057</v>
       </c>
       <c r="O9">
-        <v>0.03542285519108692</v>
+        <v>0.02343797769395061</v>
       </c>
       <c r="P9">
-        <v>0.03542285519108692</v>
+        <v>0.02343797769395061</v>
       </c>
       <c r="Q9">
-        <v>10.87544691350373</v>
+        <v>11.08099451230555</v>
       </c>
       <c r="R9">
-        <v>10.87544691350373</v>
+        <v>99.72895061074998</v>
       </c>
       <c r="S9">
-        <v>0.01476190833805761</v>
+        <v>0.007074506451968351</v>
       </c>
       <c r="T9">
-        <v>0.01476190833805761</v>
+        <v>0.007074506451968349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.15703935347516</v>
+        <v>0.05307799999999999</v>
       </c>
       <c r="H10">
-        <v>2.15703935347516</v>
+        <v>0.159234</v>
       </c>
       <c r="I10">
-        <v>0.09237632520381775</v>
+        <v>0.001636204700948844</v>
       </c>
       <c r="J10">
-        <v>0.09237632520381775</v>
+        <v>0.001636204700948844</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44037028170231</v>
+        <v>16.75150633333334</v>
       </c>
       <c r="N10">
-        <v>1.44037028170231</v>
+        <v>50.254519</v>
       </c>
       <c r="O10">
-        <v>0.04565274865252446</v>
+        <v>0.3469350574503514</v>
       </c>
       <c r="P10">
-        <v>0.04565274865252446</v>
+        <v>0.3469350574503513</v>
       </c>
       <c r="Q10">
-        <v>3.106935381207985</v>
+        <v>0.8891364531606667</v>
       </c>
       <c r="R10">
-        <v>3.106935381207985</v>
+        <v>8.002228078446</v>
       </c>
       <c r="S10">
-        <v>0.004217233155973753</v>
+        <v>0.0005676567719242222</v>
       </c>
       <c r="T10">
-        <v>0.004217233155973753</v>
+        <v>0.0005676567719242221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.15703935347516</v>
+        <v>0.05307799999999999</v>
       </c>
       <c r="H11">
-        <v>2.15703935347516</v>
+        <v>0.159234</v>
       </c>
       <c r="I11">
-        <v>0.09237632520381775</v>
+        <v>0.001636204700948844</v>
       </c>
       <c r="J11">
-        <v>0.09237632520381775</v>
+        <v>0.001636204700948844</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.85356521402386</v>
+        <v>4.930404</v>
       </c>
       <c r="N11">
-        <v>4.85356521402386</v>
+        <v>14.791212</v>
       </c>
       <c r="O11">
-        <v>0.1538344657615356</v>
+        <v>0.1021120107622625</v>
       </c>
       <c r="P11">
-        <v>0.1538344657615356</v>
+        <v>0.1021120107622625</v>
       </c>
       <c r="Q11">
-        <v>10.46933117130755</v>
+        <v>0.261695983512</v>
       </c>
       <c r="R11">
-        <v>10.46933117130755</v>
+        <v>2.355263851608</v>
       </c>
       <c r="S11">
-        <v>0.01421066263674318</v>
+        <v>0.0001670761520325529</v>
       </c>
       <c r="T11">
-        <v>0.01421066263674318</v>
+        <v>0.0001670761520325528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.15703935347516</v>
+        <v>0.05307799999999999</v>
       </c>
       <c r="H12">
-        <v>2.15703935347516</v>
+        <v>0.159234</v>
       </c>
       <c r="I12">
-        <v>0.09237632520381775</v>
+        <v>0.001636204700948844</v>
       </c>
       <c r="J12">
-        <v>0.09237632520381775</v>
+        <v>0.001636204700948844</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.1390240696821</v>
+        <v>25.470675</v>
       </c>
       <c r="N12">
-        <v>24.1390240696821</v>
+        <v>76.412025</v>
       </c>
       <c r="O12">
-        <v>0.765089930394853</v>
+        <v>0.5275149540934355</v>
       </c>
       <c r="P12">
-        <v>0.765089930394853</v>
+        <v>0.5275149540934354</v>
       </c>
       <c r="Q12">
-        <v>52.0688248727884</v>
+        <v>1.35193248765</v>
       </c>
       <c r="R12">
-        <v>52.0688248727884</v>
+        <v>12.16739238885</v>
       </c>
       <c r="S12">
-        <v>0.07067619622032122</v>
+        <v>0.0008631224477084929</v>
       </c>
       <c r="T12">
-        <v>0.07067619622032122</v>
+        <v>0.0008631224477084926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05307799999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.159234</v>
+      </c>
+      <c r="I13">
+        <v>0.001636204700948844</v>
+      </c>
+      <c r="J13">
+        <v>0.001636204700948844</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.131685666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.395057</v>
+      </c>
+      <c r="O13">
+        <v>0.02343797769395061</v>
+      </c>
+      <c r="P13">
+        <v>0.02343797769395061</v>
+      </c>
+      <c r="Q13">
+        <v>0.06006761181533332</v>
+      </c>
+      <c r="R13">
+        <v>0.5406085063379998</v>
+      </c>
+      <c r="S13">
+        <v>3.834932928357614E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.834932928357614E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.832715333333333</v>
+      </c>
+      <c r="H14">
+        <v>8.498146</v>
+      </c>
+      <c r="I14">
+        <v>0.08732247154847343</v>
+      </c>
+      <c r="J14">
+        <v>0.08732247154847342</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>16.75150633333334</v>
+      </c>
+      <c r="N14">
+        <v>50.254519</v>
+      </c>
+      <c r="O14">
+        <v>0.3469350574503514</v>
+      </c>
+      <c r="P14">
+        <v>0.3469350574503513</v>
+      </c>
+      <c r="Q14">
+        <v>47.45224884686378</v>
+      </c>
+      <c r="R14">
+        <v>427.070239621774</v>
+      </c>
+      <c r="S14">
+        <v>0.0302952266833763</v>
+      </c>
+      <c r="T14">
+        <v>0.03029522668337629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.832715333333333</v>
+      </c>
+      <c r="H15">
+        <v>8.498146</v>
+      </c>
+      <c r="I15">
+        <v>0.08732247154847343</v>
+      </c>
+      <c r="J15">
+        <v>0.08732247154847342</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.930404</v>
+      </c>
+      <c r="N15">
+        <v>14.791212</v>
+      </c>
+      <c r="O15">
+        <v>0.1021120107622625</v>
+      </c>
+      <c r="P15">
+        <v>0.1021120107622625</v>
+      </c>
+      <c r="Q15">
+        <v>13.966431010328</v>
+      </c>
+      <c r="R15">
+        <v>125.697879092952</v>
+      </c>
+      <c r="S15">
+        <v>0.008916673154545082</v>
+      </c>
+      <c r="T15">
+        <v>0.008916673154545078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.15703935347516</v>
-      </c>
-      <c r="H13">
-        <v>2.15703935347516</v>
-      </c>
-      <c r="I13">
-        <v>0.09237632520381775</v>
-      </c>
-      <c r="J13">
-        <v>0.09237632520381775</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.11761130307024</v>
-      </c>
-      <c r="N13">
-        <v>1.11761130307024</v>
-      </c>
-      <c r="O13">
-        <v>0.03542285519108692</v>
-      </c>
-      <c r="P13">
-        <v>0.03542285519108692</v>
-      </c>
-      <c r="Q13">
-        <v>2.410731562611161</v>
-      </c>
-      <c r="R13">
-        <v>2.410731562611161</v>
-      </c>
-      <c r="S13">
-        <v>0.003272233190779589</v>
-      </c>
-      <c r="T13">
-        <v>0.003272233190779589</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.832715333333333</v>
+      </c>
+      <c r="H16">
+        <v>8.498146</v>
+      </c>
+      <c r="I16">
+        <v>0.08732247154847343</v>
+      </c>
+      <c r="J16">
+        <v>0.08732247154847342</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.470675</v>
+      </c>
+      <c r="N16">
+        <v>76.412025</v>
+      </c>
+      <c r="O16">
+        <v>0.5275149540934355</v>
+      </c>
+      <c r="P16">
+        <v>0.5275149540934354</v>
+      </c>
+      <c r="Q16">
+        <v>72.15117162285</v>
+      </c>
+      <c r="R16">
+        <v>649.36054460565</v>
+      </c>
+      <c r="S16">
+        <v>0.04606390957021829</v>
+      </c>
+      <c r="T16">
+        <v>0.04606390957021828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.832715333333333</v>
+      </c>
+      <c r="H17">
+        <v>8.498146</v>
+      </c>
+      <c r="I17">
+        <v>0.08732247154847343</v>
+      </c>
+      <c r="J17">
+        <v>0.08732247154847342</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.131685666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.395057</v>
+      </c>
+      <c r="O17">
+        <v>0.02343797769395061</v>
+      </c>
+      <c r="P17">
+        <v>0.02343797769395061</v>
+      </c>
+      <c r="Q17">
+        <v>3.205743340480222</v>
+      </c>
+      <c r="R17">
+        <v>28.851690064322</v>
+      </c>
+      <c r="S17">
+        <v>0.002046662140333758</v>
+      </c>
+      <c r="T17">
+        <v>0.002046662140333757</v>
       </c>
     </row>
   </sheetData>
